--- a/biology/Zoologie/Dermasterias_imbricata/Dermasterias_imbricata.xlsx
+++ b/biology/Zoologie/Dermasterias_imbricata/Dermasterias_imbricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermasterias imbricata est une espèce d'étoile de mer de la famille des Asteropseidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grosse étoile régulière et souple, pouvant mesurer jusqu'à 30 cm d'envergure[2]. Son disque central mou est rebondi et assez large, et ses bras courts et pointus. Elle est généralement bleu-gris, avec des papilles respiratoires rouge vif formant de grosses touffes parfois contiguës.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grosse étoile régulière et souple, pouvant mesurer jusqu'à 30 cm d'envergure. Son disque central mou est rebondi et assez large, et ses bras courts et pointus. Elle est généralement bleu-gris, avec des papilles respiratoires rouge vif formant de grosses touffes parfois contiguës.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette étoile est commune sur les côtes ouest-américaines (Californie, Oregon, Canada)[3], de la surface à 90 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette étoile est commune sur les côtes ouest-américaines (Californie, Oregon, Canada), de la surface à 90 m de profondeur.
 </t>
         </is>
       </c>
